--- a/results/pvalue_SIDER_rare_target_AUROCperdrug.xlsx
+++ b/results/pvalue_SIDER_rare_target_AUROCperdrug.xlsx
@@ -626,22 +626,22 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>25.738</t>
+          <t>16.486</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>33.805</t>
+          <t>19.811</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>16.349</t>
+          <t>13.943</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>21.301</t>
+          <t>15.492</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -651,7 +651,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.046</t>
+          <t>0.255</t>
         </is>
       </c>
     </row>
@@ -663,27 +663,27 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>13.769</t>
+          <t>15.958</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>14.182</t>
+          <t>16.617</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>12.846</t>
+          <t>16.116</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>16.237</t>
+          <t>19.224</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2.85</t>
+          <t>1.327</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
